--- a/documents/BootStrap_term.xlsx
+++ b/documents/BootStrap_term.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungsoonbaek/lavender/project/bootstrap/bootstrap-5.3.3-examples/bootstraphome/bootstrap/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CD2506-250B-694F-BBAE-011A4BA3709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3BF9D1-8A3A-3448-B669-549CCDAC84F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40200" yWindow="2040" windowWidth="20680" windowHeight="17440" xr2:uid="{344CFA42-9F76-6C40-B939-B74ECFAA6EBD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{344CFA42-9F76-6C40-B939-B74ECFAA6EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>navbar</t>
   </si>
@@ -329,9 +329,6 @@
     <t>color utility를 사용하여 color 설정.</t>
   </si>
   <si>
-    <t>https://getbootstrap.kr/docs/5.1/utilities/borders/</t>
-  </si>
-  <si>
     <t>borders utility를 사용하여 테두리 및 반경 스타일을 설정.(rounded, rounded-top, rounded-end, rounded-bottom, rounded-start, rounded-circle, rounded-pill) - pill은 캡슐형</t>
   </si>
   <si>
@@ -348,6 +345,63 @@
   </si>
   <si>
     <t>flex container에서 항목의 줄바꿈 방식.(nowrap:default, wrap, wrap-reverse)</t>
+  </si>
+  <si>
+    <t>contatiner</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>iput-group</t>
+  </si>
+  <si>
+    <t>borders</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>gutters</t>
+  </si>
+  <si>
+    <t>shadows</t>
+  </si>
+  <si>
+    <t>sizing</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>https://getbootstrap.kr/docs/5.0/components/card/</t>
+  </si>
+  <si>
+    <t>여러가지 옵션을 가진 유연하고 확장 가능한 콘텐츠</t>
   </si>
 </sst>
 </file>
@@ -713,525 +767,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1592A77D-2ADD-A046-B1B6-26EBF078C85B}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
+      <c r="D43" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{24FBA2F8-C473-5248-923C-9E5E48FDC998}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{722AD38C-50BB-7E44-BA72-124F8552FA3C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{ECE1B426-4198-AB4D-BF4A-24B1781AAE1C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{84DA405E-E02C-D340-811E-B1E2FC24C50E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{79D2678C-A9E9-7A45-8AB7-33AFACBFAE72}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{4D976955-3300-8D48-9724-6ED29EFC6B40}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{D63AC11D-E809-7143-9967-BE49A0B399FD}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{1D7FA31D-9723-334A-88B8-B77D73793338}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{161ECB4B-725B-A349-9FB2-78420F007BB8}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{16FF2B41-D247-2F45-ADC0-761C79D67B4F}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{281A08DE-523F-724A-AD9B-B2B9B1F13052}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{9C3BD9F4-7C30-8842-AD3E-0BB7CDC1C332}"/>
-    <hyperlink ref="C40" r:id="rId13" xr:uid="{8ACECE57-BD22-E046-B68B-25729B3131FC}"/>
-    <hyperlink ref="C41" r:id="rId14" xr:uid="{8F1F169E-53EE-E54C-92C1-142460B0F531}"/>
-    <hyperlink ref="C42" r:id="rId15" xr:uid="{85FBBF55-7754-6146-A600-929F089A9A2C}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{4441AC1C-2F95-7A41-BADD-DD87AC7691F3}"/>
-    <hyperlink ref="C2" r:id="rId17" xr:uid="{D6835144-E78D-2C48-8BA1-F2FE71D8F1CB}"/>
-    <hyperlink ref="C34" r:id="rId18" xr:uid="{F0853FFE-9CD2-2843-B2AF-D71EE94D1C78}"/>
-    <hyperlink ref="C33" r:id="rId19" xr:uid="{70EDF0F6-E4E6-A24C-AC59-07A4B1EE2FD5}"/>
-    <hyperlink ref="C20" r:id="rId20" xr:uid="{6A7AC39B-5CEA-7B48-9FD4-B7917A41A7A2}"/>
-    <hyperlink ref="C14" r:id="rId21" xr:uid="{DC42D6D0-C735-1C48-9BDF-58A0F8F5D697}"/>
-    <hyperlink ref="C15" r:id="rId22" xr:uid="{B01B6D67-C2AC-114E-A9B0-522DFD89D386}"/>
-    <hyperlink ref="C16" r:id="rId23" xr:uid="{9982F946-BFD4-1744-B495-C07464F3EEC2}"/>
-    <hyperlink ref="C17" r:id="rId24" xr:uid="{959D7DE4-885F-C749-ABCB-E81826904E2D}"/>
-    <hyperlink ref="C18" r:id="rId25" xr:uid="{6F0485B1-1F19-8D4C-A152-8148B55781E3}"/>
-    <hyperlink ref="C19" r:id="rId26" xr:uid="{424DB0C9-FAE9-C241-84AB-FD4FDBD56A61}"/>
-    <hyperlink ref="C22" r:id="rId27" xr:uid="{952D38CE-C6CC-824D-8237-8CB6ED9DC6A4}"/>
-    <hyperlink ref="C23" r:id="rId28" xr:uid="{24DBAF07-2F8E-3841-80E4-5010FBCDC90B}"/>
-    <hyperlink ref="C24" r:id="rId29" xr:uid="{1518E3F4-236C-044B-A0A6-BA3512962CCA}"/>
-    <hyperlink ref="C25" r:id="rId30" xr:uid="{BC7642C9-DEF9-244F-8BF4-708839F9D055}"/>
-    <hyperlink ref="C26" r:id="rId31" xr:uid="{92967297-560E-E14F-8EC0-CB4A4C3CC11E}"/>
-    <hyperlink ref="C28" r:id="rId32" xr:uid="{940FF0EC-035B-0B41-814E-4F7BD1EC96DD}"/>
-    <hyperlink ref="C27" r:id="rId33" xr:uid="{5AC1230E-EE7F-504D-86CF-5376DCDA5DC9}"/>
-    <hyperlink ref="C29" r:id="rId34" xr:uid="{E9E91413-EADE-3E48-BF40-3D33855E8FF1}"/>
-    <hyperlink ref="C30" r:id="rId35" xr:uid="{C7BEBD47-B9C9-F347-9937-E541FBCD882C}"/>
-    <hyperlink ref="C31" r:id="rId36" xr:uid="{E7F451F0-FADA-5A43-A3D9-F35614A038FA}"/>
-    <hyperlink ref="C35" r:id="rId37" xr:uid="{3C6F6939-76FE-C447-9D95-DAEAFCC4F31D}"/>
-    <hyperlink ref="C36" r:id="rId38" xr:uid="{3ACFD5DA-6AD2-A944-A717-779BD2B2DBDC}"/>
-    <hyperlink ref="C37" r:id="rId39" xr:uid="{C39C4F6A-AC15-D74E-BC16-252AE6934055}"/>
-    <hyperlink ref="C38" r:id="rId40" xr:uid="{2D36225C-AC0A-8344-88F8-253E878F0EDC}"/>
-    <hyperlink ref="C39" r:id="rId41" xr:uid="{7F7DBF16-B152-5B43-A9EA-01B0815A4AF2}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{24FBA2F8-C473-5248-923C-9E5E48FDC998}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{722AD38C-50BB-7E44-BA72-124F8552FA3C}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{ECE1B426-4198-AB4D-BF4A-24B1781AAE1C}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{84DA405E-E02C-D340-811E-B1E2FC24C50E}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{D63AC11D-E809-7143-9967-BE49A0B399FD}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{161ECB4B-725B-A349-9FB2-78420F007BB8}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{16FF2B41-D247-2F45-ADC0-761C79D67B4F}"/>
+    <hyperlink ref="B40" r:id="rId8" xr:uid="{F0853FFE-9CD2-2843-B2AF-D71EE94D1C78}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{DC42D6D0-C735-1C48-9BDF-58A0F8F5D697}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{6F0485B1-1F19-8D4C-A152-8148B55781E3}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{424DB0C9-FAE9-C241-84AB-FD4FDBD56A61}"/>
+    <hyperlink ref="B32" r:id="rId12" xr:uid="{952D38CE-C6CC-824D-8237-8CB6ED9DC6A4}"/>
+    <hyperlink ref="B33" r:id="rId13" xr:uid="{24DBAF07-2F8E-3841-80E4-5010FBCDC90B}"/>
+    <hyperlink ref="B34" r:id="rId14" xr:uid="{1518E3F4-236C-044B-A0A6-BA3512962CCA}"/>
+    <hyperlink ref="B35" r:id="rId15" xr:uid="{92967297-560E-E14F-8EC0-CB4A4C3CC11E}"/>
+    <hyperlink ref="B36" r:id="rId16" xr:uid="{5AC1230E-EE7F-504D-86CF-5376DCDA5DC9}"/>
+    <hyperlink ref="B42" r:id="rId17" xr:uid="{C39C4F6A-AC15-D74E-BC16-252AE6934055}"/>
+    <hyperlink ref="B41" r:id="rId18" xr:uid="{2D36225C-AC0A-8344-88F8-253E878F0EDC}"/>
+    <hyperlink ref="B39" r:id="rId19" xr:uid="{E7F451F0-FADA-5A43-A3D9-F35614A038FA}"/>
+    <hyperlink ref="B38" r:id="rId20" xr:uid="{E9E91413-EADE-3E48-BF40-3D33855E8FF1}"/>
+    <hyperlink ref="B43" r:id="rId21" xr:uid="{883143C8-B8E9-0146-A4DF-12AAA2F8DFE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/BootStrap_term.xlsx
+++ b/documents/BootStrap_term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyungsoonbaek/lavender/project/bootstrap/bootstrap-5.3.3-examples/bootstraphome/bootstrap/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3BF9D1-8A3A-3448-B669-549CCDAC84F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4191CEB4-D321-D540-A69D-9733DF9BCA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{344CFA42-9F76-6C40-B939-B74ECFAA6EBD}"/>
   </bookViews>
@@ -769,12 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1592A77D-2ADD-A046-B1B6-26EBF078C85B}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55" style="2" bestFit="1" customWidth="1"/>
